--- a/pearson_tables/t2m_netherlands-3-2.xlsx
+++ b/pearson_tables/t2m_netherlands-3-2.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7489268685703798</v>
+        <v>-0.7247754230060136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7070610729236519</v>
+        <v>0.7608052540215544</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6954144097946386</v>
+        <v>-0.7252135702917417</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6089551206372962</v>
+        <v>-0.6069690727854898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6276496118786321</v>
+        <v>0.7071700527823748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5912179831850879</v>
+        <v>0.6084203508627388</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5585593001081512</v>
+        <v>0.5641090761372134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5230029637882718</v>
+        <v>0.5512940684923905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7011578133202353</v>
+        <v>0.7078150337231222</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6100458812739838</v>
+        <v>0.6528381984830396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5678577911713735</v>
+        <v>-0.5859425237573794</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6892263612259625</v>
+        <v>-0.6175322429901743</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8898273705133215</v>
+        <v>-0.8782445085993372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5909612072605192</v>
+        <v>0.6323511286884496</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7208202689477907</v>
+        <v>0.7053999319393163</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5825279699228303</v>
+        <v>0.5826337139205965</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5808597783930092</v>
+        <v>-0.5781330444998152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6583274307552262</v>
+        <v>-0.6476033326243469</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6846039701888297</v>
+        <v>-0.6925982365110236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5644181783569</v>
+        <v>-0.6031915776541145</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6373025913518303</v>
+        <v>-0.6565433545551664</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.698984172006715</v>
+        <v>0.6844975782622724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6083866480741332</v>
+        <v>-0.6062967741102225</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6942409345583332</v>
+        <v>0.6702983456474365</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-2.xlsx
+++ b/pearson_tables/t2m_netherlands-3-2.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7247754230060136</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7608052540215544</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7252135702917417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6069690727854898</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7071700527823748</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6084203508627388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5641090761372134</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5512940684923905</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7078150337231222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6528381984830396</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5859425237573794</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6175322429901743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8782445085993372</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6323511286884496</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7053999319393163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5826337139205965</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5781330444998152</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6476033326243469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6925982365110236</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6031915776541145</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6565433545551664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6844975782622724</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6062967741102225</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6702983456474365</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
